--- a/FieldData/2015/xlsx_analysis/09-002-B Field Data.xlsx
+++ b/FieldData/2015/xlsx_analysis/09-002-B Field Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fc4fc14c9be0aac/Documents/GitHub/CompSites/FieldData/2015/xlsx_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_FC590351A55EE2638BDE27AFD90F33A2CD922BFC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{297E637F-8B2B-482E-8D84-AA9E6CD09A32}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_FC590351A55EE2638BDE27AFD90F33A2CD922BFC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C95CC44-D025-4C86-B4A9-5673BE92C67D}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="945" windowWidth="20865" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marsh" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="42">
   <si>
     <t>PLOT</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Scientific</t>
   </si>
   <si>
-    <t>Common</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -148,6 +145,12 @@
   </si>
   <si>
     <t>MAX_LH</t>
+  </si>
+  <si>
+    <t>SPECIES_CODE</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -360,7 +363,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -388,10 +391,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1751,7 +1762,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L28" sqref="L28"/>
+      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1769,130 +1780,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="34.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
+      <c r="D2" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="5">
         <v>8</v>
-      </c>
-      <c r="F2" s="5">
-        <v>90</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2">
-        <v>90</v>
-      </c>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="F3" s="5">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3" s="2">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="5">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>101</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="E5" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5" s="5">
-        <v>8</v>
-      </c>
-      <c r="G5" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>9</v>
@@ -1900,19 +1915,23 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F6" s="5">
-        <v>2</v>
-      </c>
-      <c r="G6" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>10</v>
@@ -1921,48 +1940,48 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="5">
         <v>100</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>114</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F8" s="5">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="2">
-        <v>114</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>11</v>
@@ -1971,22 +1990,24 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F9" s="5">
+        <v>75</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <v>88</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>11</v>
@@ -1994,19 +2015,23 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="E10" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F10" s="5">
-        <v>2</v>
-      </c>
-      <c r="G10" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>12</v>
@@ -2015,16 +2040,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="5">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11" s="2">
         <v>88</v>
@@ -2032,101 +2057,109 @@
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>26</v>
+      <c r="D12" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F12" s="5">
+        <v>100</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <v>95</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F13" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="E14" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F14" s="5">
-        <v>28</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="2">
+        <v>111</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F15" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15" s="2">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>14</v>
@@ -2134,49 +2167,49 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>8</v>
+      <c r="D16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="F16" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="2">
-        <v>95</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F17" s="5">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H17" s="2">
+        <v>94</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>15</v>
@@ -2185,24 +2218,24 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" s="5">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H18" s="2">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>15</v>
@@ -2211,24 +2244,22 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F19" s="5">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="2">
-        <v>110</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>15</v>
@@ -2237,22 +2268,22 @@
         <v>1</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="11" t="s">
         <v>25</v>
       </c>
+      <c r="E20" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="F20" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>16</v>
@@ -2261,24 +2292,24 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" s="5">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H21" s="2">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>16</v>
@@ -2287,24 +2318,22 @@
         <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="2">
-        <v>85</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>16</v>
@@ -2312,23 +2341,23 @@
       <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>23</v>
+      <c r="D23" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F23" s="5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>16</v>
@@ -2337,186 +2366,181 @@
         <v>1</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F24" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F25" s="5">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="2">
-        <v>99</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F26" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>35</v>
-      </c>
+      <c r="D27" s="13"/>
       <c r="E27" s="4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F27" s="5">
         <v>8</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="D28" s="7"/>
       <c r="E28" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F28" s="5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="D29" s="13"/>
       <c r="E29" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F29" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="D30" s="3"/>
       <c r="E30" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F30" s="5">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F31" s="5">
         <v>40</v>
       </c>
-      <c r="G31" s="6"/>
+      <c r="G31" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="H31" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:IN31">
+    <sortCondition ref="G2:G31"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
